--- a/Practice/mud_1/UW/work_with_url/Парсер оценок/Список магазинов.xlsx
+++ b/Practice/mud_1/UW/work_with_url/Парсер оценок/Список магазинов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Название магазина</t>
   </si>
@@ -37,19 +37,86 @@
   </si>
   <si>
     <t>Павловский тракт, 206Б</t>
+  </si>
+  <si>
+    <t>65 лет Победы, 20</t>
+  </si>
+  <si>
+    <t>Переулок Ядринцева, 95</t>
+  </si>
+  <si>
+    <t>Дорожная улица, 44/1</t>
+  </si>
+  <si>
+    <t>Советской Армии, 75</t>
+  </si>
+  <si>
+    <t>Власихинская улица, 65а к1</t>
+  </si>
+  <si>
+    <t>Новосибирская улица, 50Б</t>
+  </si>
+  <si>
+    <t>Столичная, 1</t>
+  </si>
+  <si>
+    <t>Центральная улица, 38</t>
+  </si>
+  <si>
+    <t>Ореховая 3-я, 36</t>
+  </si>
+  <si>
+    <t>Дорожная улица, 42/1</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/novoaltaysk/branches/563486824415521/firm/563478235091936/83.988369%2C53.383472?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001066938486/83.600399%2C53.392855?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001065566003/83.956077%2C53.31674?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001061290265/83.64441%2C53.242071?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001047604866/83.597827%2C53.301237?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001069399583/83.687743%2C53.327182?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001058656136/83.731324%2C53.346563?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/novoaltaysk/branches/563486824415521/firm/563478234508453/83.988881%2C53.384473?m=83.779215%2C53.34895%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001040992874/83.663855%2C53.351059?m=83.663855%2C53.351059%2F11</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/barnaul/branches/563486824415521/firm/70000001059462903/83.762471%2C53.336914?m=83.762471%2C53.336914%2F11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +458,86 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
